--- a/excel/Cronogram.xlsx
+++ b/excel/Cronogram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="4220" windowWidth="39200" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
   <si>
     <t>Q1</t>
   </si>
@@ -33,58 +33,64 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>NEW PV</t>
-  </si>
-  <si>
-    <t>Testing at IFIC (leaks, integrity)</t>
-  </si>
-  <si>
-    <t>Shipping to LSC</t>
-  </si>
-  <si>
-    <t>Cleaning at LSC</t>
-  </si>
-  <si>
-    <t>Assembly and commissioning</t>
-  </si>
-  <si>
-    <t>NEXT-100 PV</t>
-  </si>
-  <si>
-    <t>Shipping and storage at LSC</t>
-  </si>
-  <si>
-    <t>Purchase ICS stock</t>
-  </si>
-  <si>
-    <t>Manufacture ICS</t>
-  </si>
-  <si>
-    <t>Clean parts and assemably</t>
-  </si>
-  <si>
-    <t>Commissioning</t>
-  </si>
-  <si>
-    <t>Gas system</t>
-  </si>
-  <si>
-    <t>Radon supression system</t>
-  </si>
-  <si>
     <t xml:space="preserve">Operation </t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>Poosible upgrade</t>
+    <t>O</t>
   </si>
   <si>
     <t>Clean tent</t>
   </si>
   <si>
     <t>Installation</t>
+  </si>
+  <si>
+    <t>Pressure Vessel</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure Vessel </t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CLSC</t>
+  </si>
+  <si>
+    <t>Energy plane</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>UPG</t>
+  </si>
+  <si>
+    <t>Tracking plane</t>
+  </si>
+  <si>
+    <t>Field Cage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXT-100 </t>
+  </si>
+  <si>
+    <t>Energy Plane</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Tracking Plane</t>
   </si>
 </sst>
 </file>
@@ -476,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q15"/>
+  <dimension ref="A2:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -495,6 +501,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2">
         <v>2015</v>
       </c>
@@ -560,162 +569,256 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20">
+        <f>1800/64</f>
+        <v>28.125</v>
       </c>
     </row>
   </sheetData>
